--- a/biology/Histoire de la zoologie et de la botanique/Wesley_Edwin_Lanyon/Wesley_Edwin_Lanyon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wesley_Edwin_Lanyon/Wesley_Edwin_Lanyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wesley Edwin Lanyon, surnommé Bud Lanyon, est un ornithologue et zoologue américain, né le 10 juin 1926 à Norwalk et mort le 7 juin 2017 à North Chatham (en)[1].
-Il est conservateur au Musée américain d'histoire naturelle[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wesley Edwin Lanyon, surnommé Bud Lanyon, est un ornithologue et zoologue américain, né le 10 juin 1926 à Norwalk et mort le 7 juin 2017 à North Chatham (en).
+Il est conservateur au Musée américain d'histoire naturelle,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Wesley E. Lanyon, William N. Tavolga, Animal sounds and communication, part. 1, American Institute of Biological Sciences, 1960, 443 p.
 Michael Archer, Wesley E. Lanyon, Systematic Revision of the Marsupial Dasyurid Genus Sminthopsis Thomas, vol. 168, numéros 1 à 2, American Museum of Natural History, 1981, 161 p.</t>
